--- a/EvaluationResults/RQ2+RQ3/2-SlsDetector-llama-result.xlsx
+++ b/EvaluationResults/RQ2+RQ3/2-SlsDetector-llama-result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cynthia/Desktop/Cynthia WorkSpace/serverless misconfiguration/LLM新方法设计/AllCode/Output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FE1BB8-D0FB-AE43-AC12-6EC60F889ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04422D4-655B-0F4C-A205-66E3B334E373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gpt4o" sheetId="1" r:id="rId1"/>
@@ -1506,8 +1506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="18" customHeight="1"/>
@@ -1595,14 +1595,14 @@
         <v>0</v>
       </c>
       <c r="J2" s="4">
-        <f>H2-I2</f>
+        <f t="shared" ref="J2:J33" si="0">H2-I2</f>
         <v>0</v>
       </c>
       <c r="K2" s="6">
         <v>5</v>
       </c>
       <c r="L2" s="2">
-        <f>G2-K2</f>
+        <f t="shared" ref="L2:L33" si="1">G2-K2</f>
         <v>124</v>
       </c>
       <c r="M2" s="4"/>
@@ -1638,14 +1638,14 @@
         <v>0</v>
       </c>
       <c r="J3" s="4">
-        <f>H3-I3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K3" s="6">
         <v>3</v>
       </c>
       <c r="L3" s="2">
-        <f>G3-K3</f>
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="M3" s="4"/>
@@ -1681,14 +1681,14 @@
         <v>0</v>
       </c>
       <c r="J4" s="4">
-        <f>H4-I4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K4" s="6">
         <v>1</v>
       </c>
       <c r="L4" s="2">
-        <f>G4-K4</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="M4" s="4"/>
@@ -1724,14 +1724,14 @@
         <v>0</v>
       </c>
       <c r="J5" s="4">
-        <f>H5-I5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K5" s="6">
         <v>2</v>
       </c>
       <c r="L5" s="2">
-        <f>G5-K5</f>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="M5" s="4"/>
@@ -1767,14 +1767,14 @@
         <v>0</v>
       </c>
       <c r="J6" s="4">
-        <f>H6-I6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K6" s="6">
         <v>0</v>
       </c>
       <c r="L6" s="2">
-        <f>G6-K6</f>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="M6" s="4"/>
@@ -1810,14 +1810,14 @@
         <v>0</v>
       </c>
       <c r="J7" s="4">
-        <f>H7-I7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K7" s="6">
         <v>1</v>
       </c>
       <c r="L7" s="2">
-        <f>G7-K7</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="M7" s="4"/>
@@ -1853,14 +1853,14 @@
         <v>0</v>
       </c>
       <c r="J8" s="4">
-        <f>H8-I8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K8" s="6">
         <v>0</v>
       </c>
       <c r="L8" s="2">
-        <f>G8-K8</f>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="M8" s="4"/>
@@ -1896,14 +1896,14 @@
         <v>0</v>
       </c>
       <c r="J9" s="4">
-        <f>H9-I9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K9" s="6">
         <v>2</v>
       </c>
       <c r="L9" s="2">
-        <f>G9-K9</f>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="M9" s="4"/>
@@ -1939,14 +1939,14 @@
         <v>0</v>
       </c>
       <c r="J10" s="4">
-        <f>H10-I10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K10" s="6">
         <v>4</v>
       </c>
       <c r="L10" s="2">
-        <f>G10-K10</f>
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="M10" s="4"/>
@@ -1982,14 +1982,14 @@
         <v>0</v>
       </c>
       <c r="J11" s="4">
-        <f>H11-I11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K11" s="5">
         <v>4</v>
       </c>
       <c r="L11" s="2">
-        <f>G11-K11</f>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="M11" s="4"/>
@@ -2025,14 +2025,14 @@
         <v>0</v>
       </c>
       <c r="J12" s="4">
-        <f>H12-I12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K12" s="6">
         <v>7</v>
       </c>
       <c r="L12" s="2">
-        <f>G12-K12</f>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="M12" s="4"/>
@@ -2068,14 +2068,14 @@
         <v>0</v>
       </c>
       <c r="J13" s="4">
-        <f>H13-I13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K13" s="6">
         <v>1</v>
       </c>
       <c r="L13" s="2">
-        <f>G13-K13</f>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="M13" s="4"/>
@@ -2111,14 +2111,14 @@
         <v>0</v>
       </c>
       <c r="J14" s="4">
-        <f>H14-I14</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K14" s="6">
         <v>1</v>
       </c>
       <c r="L14" s="2">
-        <f>G14-K14</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="M14" s="4"/>
@@ -2154,14 +2154,14 @@
         <v>0</v>
       </c>
       <c r="J15" s="4">
-        <f>H15-I15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K15" s="6">
         <v>0</v>
       </c>
       <c r="L15" s="2">
-        <f>G15-K15</f>
+        <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="M15" s="4"/>
@@ -2197,14 +2197,14 @@
         <v>0</v>
       </c>
       <c r="J16" s="4">
-        <f>H16-I16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K16" s="6">
         <v>0</v>
       </c>
       <c r="L16" s="2">
-        <f>G16-K16</f>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="M16" s="4"/>
@@ -2240,14 +2240,14 @@
         <v>0</v>
       </c>
       <c r="J17" s="4">
-        <f>H17-I17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K17" s="6">
         <v>0</v>
       </c>
       <c r="L17" s="2">
-        <f>G17-K17</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="M17" s="4"/>
@@ -2283,14 +2283,14 @@
         <v>0</v>
       </c>
       <c r="J18" s="4">
-        <f>H18-I18</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K18" s="6">
         <v>0</v>
       </c>
       <c r="L18" s="2">
-        <f>G18-K18</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="M18" s="4"/>
@@ -2326,14 +2326,14 @@
         <v>0</v>
       </c>
       <c r="J19" s="4">
-        <f>H19-I19</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K19" s="6">
         <v>0</v>
       </c>
       <c r="L19" s="2">
-        <f>G19-K19</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="M19" s="4"/>
@@ -2369,14 +2369,14 @@
         <v>0</v>
       </c>
       <c r="J20" s="4">
-        <f>H20-I20</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K20" s="6">
         <v>9</v>
       </c>
       <c r="L20" s="2">
-        <f>G20-K20</f>
+        <f t="shared" si="1"/>
         <v>161</v>
       </c>
       <c r="M20" s="4"/>
@@ -2412,14 +2412,14 @@
         <v>0</v>
       </c>
       <c r="J21" s="4">
-        <f>H21-I21</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K21" s="6">
         <v>1</v>
       </c>
       <c r="L21" s="2">
-        <f>G21-K21</f>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="M21" s="4"/>
@@ -2455,14 +2455,14 @@
         <v>0</v>
       </c>
       <c r="J22" s="4">
-        <f>H22-I22</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K22" s="6">
         <v>10</v>
       </c>
       <c r="L22" s="2">
-        <f>G22-K22</f>
+        <f t="shared" si="1"/>
         <v>512</v>
       </c>
       <c r="M22" s="4"/>
@@ -2498,14 +2498,14 @@
         <v>0</v>
       </c>
       <c r="J23" s="4">
-        <f>H23-I23</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K23" s="6">
         <v>2</v>
       </c>
       <c r="L23" s="2">
-        <f>G23-K23</f>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="M23" s="4"/>
@@ -2541,14 +2541,14 @@
         <v>0</v>
       </c>
       <c r="J24" s="4">
-        <f>H24-I24</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K24" s="6">
         <v>5</v>
       </c>
       <c r="L24" s="2">
-        <f>G24-K24</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="M24" s="4"/>
@@ -2584,14 +2584,14 @@
         <v>0</v>
       </c>
       <c r="J25" s="4">
-        <f>H25-I25</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K25" s="6">
         <v>1</v>
       </c>
       <c r="L25" s="2">
-        <f>G25-K25</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="M25" s="4"/>
@@ -2627,14 +2627,14 @@
         <v>0</v>
       </c>
       <c r="J26" s="4">
-        <f>H26-I26</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K26" s="6">
         <v>0</v>
       </c>
       <c r="L26" s="2">
-        <f>G26-K26</f>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="M26" s="4"/>
@@ -2670,14 +2670,14 @@
         <v>0</v>
       </c>
       <c r="J27" s="4">
-        <f>H27-I27</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K27" s="6">
         <v>0</v>
       </c>
       <c r="L27" s="2">
-        <f>G27-K27</f>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="M27" s="4"/>
@@ -2713,14 +2713,14 @@
         <v>0</v>
       </c>
       <c r="J28" s="4">
-        <f>H28-I28</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K28" s="6">
         <v>2</v>
       </c>
       <c r="L28" s="2">
-        <f>G28-K28</f>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="M28" s="2"/>
@@ -2756,14 +2756,14 @@
         <v>16</v>
       </c>
       <c r="J29" s="4">
-        <f>H29-I29</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K29" s="6">
         <v>0</v>
       </c>
       <c r="L29" s="2">
-        <f>G29-K29</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="M29" s="2"/>
@@ -2799,14 +2799,14 @@
         <v>9</v>
       </c>
       <c r="J30" s="4">
-        <f>H30-I30</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K30" s="6">
         <v>3</v>
       </c>
       <c r="L30" s="2">
-        <f>G30-K30</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="M30" s="2"/>
@@ -2842,14 +2842,14 @@
         <v>22</v>
       </c>
       <c r="J31" s="4">
-        <f>H31-I31</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K31" s="6">
         <v>0</v>
       </c>
       <c r="L31" s="2">
-        <f>G31-K31</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="M31" s="2"/>
@@ -2885,14 +2885,14 @@
         <v>5</v>
       </c>
       <c r="J32" s="4">
-        <f>H32-I32</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K32" s="6">
         <v>1</v>
       </c>
       <c r="L32" s="2">
-        <f>G32-K32</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="M32" s="2"/>
@@ -2928,14 +2928,14 @@
         <v>1</v>
       </c>
       <c r="J33" s="4">
-        <f>H33-I33</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K33" s="6">
         <v>1</v>
       </c>
       <c r="L33" s="2">
-        <f>G33-K33</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="M33" s="2"/>
@@ -2971,14 +2971,14 @@
         <v>1</v>
       </c>
       <c r="J34" s="4">
-        <f>H34-I34</f>
+        <f t="shared" ref="J34:J65" si="2">H34-I34</f>
         <v>0</v>
       </c>
       <c r="K34" s="6">
         <v>1</v>
       </c>
       <c r="L34" s="2">
-        <f>G34-K34</f>
+        <f t="shared" ref="L34:L65" si="3">G34-K34</f>
         <v>15</v>
       </c>
       <c r="M34" s="2"/>
@@ -3014,14 +3014,14 @@
         <v>0</v>
       </c>
       <c r="J35" s="4">
-        <f>H35-I35</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K35" s="6">
         <v>0</v>
       </c>
       <c r="L35" s="2">
-        <f>G35-K35</f>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="M35" s="2"/>
@@ -3057,14 +3057,14 @@
         <v>1</v>
       </c>
       <c r="J36" s="4">
-        <f>H36-I36</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K36" s="6">
         <v>0</v>
       </c>
       <c r="L36" s="2">
-        <f>G36-K36</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="M36" s="2"/>
@@ -3100,14 +3100,14 @@
         <v>4</v>
       </c>
       <c r="J37" s="4">
-        <f>H37-I37</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K37" s="6">
         <v>1</v>
       </c>
       <c r="L37" s="2">
-        <f>G37-K37</f>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="M37" s="2"/>
@@ -3143,14 +3143,14 @@
         <v>1</v>
       </c>
       <c r="J38" s="4">
-        <f>H38-I38</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K38" s="6">
         <v>1</v>
       </c>
       <c r="L38" s="2">
-        <f>G38-K38</f>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="M38" s="2"/>
@@ -3186,14 +3186,14 @@
         <v>6</v>
       </c>
       <c r="J39" s="4">
-        <f>H39-I39</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K39" s="6">
         <v>0</v>
       </c>
       <c r="L39" s="2">
-        <f>G39-K39</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="M39" s="2"/>
@@ -3229,14 +3229,14 @@
         <v>0</v>
       </c>
       <c r="J40" s="4">
-        <f>H40-I40</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="K40" s="6">
         <v>0</v>
       </c>
       <c r="L40" s="2">
-        <f>G40-K40</f>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="M40" s="2"/>
@@ -3272,14 +3272,14 @@
         <v>2</v>
       </c>
       <c r="J41" s="4">
-        <f>H41-I41</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K41" s="6">
         <v>0</v>
       </c>
       <c r="L41" s="2">
-        <f>G41-K41</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M41" s="2"/>
@@ -3315,14 +3315,14 @@
         <v>1</v>
       </c>
       <c r="J42" s="4">
-        <f>H42-I42</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K42" s="6">
         <v>0</v>
       </c>
       <c r="L42" s="2">
-        <f>G42-K42</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="M42" s="2"/>
@@ -3358,14 +3358,14 @@
         <v>1</v>
       </c>
       <c r="J43" s="4">
-        <f>H43-I43</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K43" s="6">
         <v>1</v>
       </c>
       <c r="L43" s="2">
-        <f>G43-K43</f>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="M43" s="2"/>
@@ -3401,14 +3401,14 @@
         <v>8</v>
       </c>
       <c r="J44" s="4">
-        <f>H44-I44</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K44" s="6">
         <v>2</v>
       </c>
       <c r="L44" s="2">
-        <f>G44-K44</f>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="M44" s="2"/>
@@ -3444,14 +3444,14 @@
         <v>3</v>
       </c>
       <c r="J45" s="4">
-        <f>H45-I45</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K45" s="6">
         <v>0</v>
       </c>
       <c r="L45" s="2">
-        <f>G45-K45</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="M45" s="2"/>
@@ -3487,14 +3487,14 @@
         <v>8</v>
       </c>
       <c r="J46" s="4">
-        <f>H46-I46</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K46" s="6">
         <v>1</v>
       </c>
       <c r="L46" s="2">
-        <f>G46-K46</f>
+        <f t="shared" si="3"/>
         <v>143</v>
       </c>
       <c r="M46" s="2"/>
@@ -3530,14 +3530,14 @@
         <v>1</v>
       </c>
       <c r="J47" s="4">
-        <f>H47-I47</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K47" s="6">
         <v>0</v>
       </c>
       <c r="L47" s="2">
-        <f>G47-K47</f>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="M47" s="2"/>
@@ -3573,14 +3573,14 @@
         <v>1</v>
       </c>
       <c r="J48" s="4">
-        <f>H48-I48</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K48" s="6">
         <v>0</v>
       </c>
       <c r="L48" s="2">
-        <f>G48-K48</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M48" s="2"/>
@@ -3616,14 +3616,14 @@
         <v>6</v>
       </c>
       <c r="J49" s="4">
-        <f>H49-I49</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K49" s="6">
         <v>0</v>
       </c>
       <c r="L49" s="2">
-        <f>G49-K49</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="M49" s="2"/>
@@ -3659,14 +3659,14 @@
         <v>4</v>
       </c>
       <c r="J50" s="4">
-        <f>H50-I50</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K50" s="6">
         <v>2</v>
       </c>
       <c r="L50" s="2">
-        <f>G50-K50</f>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="M50" s="2"/>
@@ -3702,14 +3702,14 @@
         <v>1</v>
       </c>
       <c r="J51" s="4">
-        <f>H51-I51</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K51" s="6">
         <v>0</v>
       </c>
       <c r="L51" s="2">
-        <f>G51-K51</f>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="M51" s="2"/>
@@ -3745,14 +3745,14 @@
         <v>0</v>
       </c>
       <c r="J52" s="4">
-        <f>H52-I52</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="K52" s="6">
         <v>0</v>
       </c>
       <c r="L52" s="2">
-        <f>G52-K52</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="M52" s="2"/>
@@ -3788,15 +3788,15 @@
         <v>0</v>
       </c>
       <c r="J53" s="2">
-        <f>H53-I53</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K53" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L53" s="2">
-        <f>G53-K53</f>
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>11</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -3831,14 +3831,14 @@
         <v>3</v>
       </c>
       <c r="J54" s="4">
-        <f>H54-I54</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K54" s="6">
         <v>0</v>
       </c>
       <c r="L54" s="2">
-        <f>G54-K54</f>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="M54" s="2"/>
@@ -3874,14 +3874,14 @@
         <v>2</v>
       </c>
       <c r="J55" s="4">
-        <f>H55-I55</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K55" s="6">
         <v>2</v>
       </c>
       <c r="L55" s="2">
-        <f>G55-K55</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="M55" s="2"/>
@@ -3917,15 +3917,15 @@
         <v>1</v>
       </c>
       <c r="J56" s="4">
-        <f>H56-I56</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K56" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L56" s="2">
-        <f>G56-K56</f>
-        <v>13</v>
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -3960,14 +3960,14 @@
         <v>1</v>
       </c>
       <c r="J57" s="4">
-        <f>H57-I57</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K57" s="6">
         <v>1</v>
       </c>
       <c r="L57" s="2">
-        <f>G57-K57</f>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="M57" s="2"/>
@@ -4003,14 +4003,14 @@
         <v>1</v>
       </c>
       <c r="J58" s="4">
-        <f>H58-I58</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K58" s="6">
         <v>1</v>
       </c>
       <c r="L58" s="2">
-        <f>G58-K58</f>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="M58" s="2"/>
@@ -4046,14 +4046,14 @@
         <v>2</v>
       </c>
       <c r="J59" s="4">
-        <f>H59-I59</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K59" s="6">
         <v>0</v>
       </c>
       <c r="L59" s="2">
-        <f>G59-K59</f>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="M59" s="2"/>
@@ -4089,14 +4089,14 @@
         <v>1</v>
       </c>
       <c r="J60" s="4">
-        <f>H60-I60</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K60" s="6">
         <v>0</v>
       </c>
       <c r="L60" s="2">
-        <f>G60-K60</f>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="M60" s="2"/>
@@ -4132,14 +4132,14 @@
         <v>0</v>
       </c>
       <c r="J61" s="4">
-        <f>H61-I61</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="K61" s="6">
         <v>0</v>
       </c>
       <c r="L61" s="2">
-        <f>G61-K61</f>
+        <f t="shared" si="3"/>
         <v>77</v>
       </c>
       <c r="M61" s="2"/>
@@ -4175,14 +4175,14 @@
         <v>3</v>
       </c>
       <c r="J62" s="4">
-        <f>H62-I62</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K62" s="6">
         <v>1</v>
       </c>
       <c r="L62" s="2">
-        <f>G62-K62</f>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="M62" s="2"/>
@@ -4218,14 +4218,14 @@
         <v>1</v>
       </c>
       <c r="J63" s="4">
-        <f>H63-I63</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K63" s="6">
         <v>1</v>
       </c>
       <c r="L63" s="2">
-        <f>G63-K63</f>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="M63" s="2"/>
@@ -4261,14 +4261,14 @@
         <v>1</v>
       </c>
       <c r="J64" s="4">
-        <f>H64-I64</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="K64" s="6">
         <v>2</v>
       </c>
       <c r="L64" s="2">
-        <f>G64-K64</f>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="M64" s="2"/>
@@ -4304,14 +4304,14 @@
         <v>1</v>
       </c>
       <c r="J65" s="4">
-        <f>H65-I65</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K65" s="6">
         <v>0</v>
       </c>
       <c r="L65" s="2">
-        <f>G65-K65</f>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="M65" s="2"/>
@@ -4347,14 +4347,14 @@
         <v>0</v>
       </c>
       <c r="J66" s="4">
-        <f>H66-I66</f>
+        <f t="shared" ref="J66:J97" si="4">H66-I66</f>
         <v>1</v>
       </c>
       <c r="K66" s="6">
         <v>0</v>
       </c>
       <c r="L66" s="2">
-        <f>G66-K66</f>
+        <f t="shared" ref="L66:L97" si="5">G66-K66</f>
         <v>19</v>
       </c>
       <c r="M66" s="2"/>
@@ -4390,14 +4390,14 @@
         <v>1</v>
       </c>
       <c r="J67" s="4">
-        <f>H67-I67</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K67" s="6">
         <v>0</v>
       </c>
       <c r="L67" s="2">
-        <f>G67-K67</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="M67" s="2"/>
@@ -4433,14 +4433,14 @@
         <v>1</v>
       </c>
       <c r="J68" s="4">
-        <f>H68-I68</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K68" s="6">
         <v>0</v>
       </c>
       <c r="L68" s="2">
-        <f>G68-K68</f>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="M68" s="2"/>
@@ -4476,14 +4476,14 @@
         <v>1</v>
       </c>
       <c r="J69" s="4">
-        <f>H69-I69</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K69" s="6">
         <v>0</v>
       </c>
       <c r="L69" s="2">
-        <f>G69-K69</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="M69" s="2"/>
@@ -4519,14 +4519,14 @@
         <v>2</v>
       </c>
       <c r="J70" s="4">
-        <f>H70-I70</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K70" s="6">
         <v>0</v>
       </c>
       <c r="L70" s="2">
-        <f>G70-K70</f>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="M70" s="2"/>
@@ -4562,14 +4562,14 @@
         <v>0</v>
       </c>
       <c r="J71" s="4">
-        <f>H71-I71</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="K71" s="6">
         <v>0</v>
       </c>
       <c r="L71" s="2">
-        <f>G71-K71</f>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="M71" s="2"/>
@@ -4605,14 +4605,14 @@
         <v>0</v>
       </c>
       <c r="J72" s="4">
-        <f>H72-I72</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="K72" s="6">
         <v>0</v>
       </c>
       <c r="L72" s="2">
-        <f>G72-K72</f>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="M72" s="2"/>
@@ -4648,14 +4648,14 @@
         <v>1</v>
       </c>
       <c r="J73" s="4">
-        <f>H73-I73</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K73" s="6">
         <v>0</v>
       </c>
       <c r="L73" s="2">
-        <f>G73-K73</f>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="M73" s="2"/>
@@ -4691,14 +4691,14 @@
         <v>1</v>
       </c>
       <c r="J74" s="4">
-        <f>H74-I74</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K74" s="6">
         <v>1</v>
       </c>
       <c r="L74" s="2">
-        <f>G74-K74</f>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="M74" s="2"/>
@@ -4734,14 +4734,14 @@
         <v>1</v>
       </c>
       <c r="J75" s="4">
-        <f>H75-I75</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K75" s="6">
         <v>0</v>
       </c>
       <c r="L75" s="2">
-        <f>G75-K75</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="M75" s="2"/>
@@ -4777,14 +4777,14 @@
         <v>1</v>
       </c>
       <c r="J76" s="4">
-        <f>H76-I76</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="K76" s="6">
         <v>0</v>
       </c>
       <c r="L76" s="2">
-        <f>G76-K76</f>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="M76" s="2"/>
@@ -4820,14 +4820,14 @@
         <v>1</v>
       </c>
       <c r="J77" s="4">
-        <f>H77-I77</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K77" s="6">
         <v>0</v>
       </c>
       <c r="L77" s="2">
-        <f>G77-K77</f>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="M77" s="2"/>
@@ -4863,14 +4863,14 @@
         <v>25</v>
       </c>
       <c r="J78" s="4">
-        <f>H78-I78</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K78" s="6">
         <v>1</v>
       </c>
       <c r="L78" s="2">
-        <f>G78-K78</f>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="M78" s="2"/>
@@ -4906,14 +4906,14 @@
         <v>0</v>
       </c>
       <c r="J79" s="4">
-        <f>H79-I79</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="K79" s="6">
         <v>0</v>
       </c>
       <c r="L79" s="2">
-        <f>G79-K79</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="M79" s="2"/>
@@ -4949,14 +4949,14 @@
         <v>1</v>
       </c>
       <c r="J80" s="4">
-        <f>H80-I80</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K80" s="6">
         <v>0</v>
       </c>
       <c r="L80" s="2">
-        <f>G80-K80</f>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="M80" s="2"/>
@@ -4992,14 +4992,14 @@
         <v>2</v>
       </c>
       <c r="J81" s="4">
-        <f>H81-I81</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K81" s="6">
         <v>3</v>
       </c>
       <c r="L81" s="2">
-        <f>G81-K81</f>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="M81" s="2"/>
@@ -5035,14 +5035,14 @@
         <v>13</v>
       </c>
       <c r="J82" s="4">
-        <f>H82-I82</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K82" s="6">
         <v>1</v>
       </c>
       <c r="L82" s="2">
-        <f>G82-K82</f>
+        <f t="shared" si="5"/>
         <v>43</v>
       </c>
       <c r="M82" s="2"/>
@@ -5078,14 +5078,14 @@
         <v>4</v>
       </c>
       <c r="J83" s="4">
-        <f>H83-I83</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K83" s="6">
         <v>0</v>
       </c>
       <c r="L83" s="2">
-        <f>G83-K83</f>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="M83" s="2"/>
@@ -5121,14 +5121,14 @@
         <v>2</v>
       </c>
       <c r="J84" s="4">
-        <f>H84-I84</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K84" s="6">
         <v>1</v>
       </c>
       <c r="L84" s="2">
-        <f>G84-K84</f>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="M84" s="2"/>
@@ -5164,14 +5164,14 @@
         <v>0</v>
       </c>
       <c r="J85" s="4">
-        <f>H85-I85</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="K85" s="6">
         <v>0</v>
       </c>
       <c r="L85" s="2">
-        <f>G85-K85</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="M85" s="2"/>
@@ -5207,14 +5207,14 @@
         <v>0</v>
       </c>
       <c r="J86" s="4">
-        <f>H86-I86</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="K86" s="6">
         <v>1</v>
       </c>
       <c r="L86" s="2">
-        <f>G86-K86</f>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="M86" s="2"/>
@@ -5250,14 +5250,14 @@
         <v>0</v>
       </c>
       <c r="J87" s="4">
-        <f>H87-I87</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="K87" s="6">
         <v>0</v>
       </c>
       <c r="L87" s="2">
-        <f>G87-K87</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="M87" s="2"/>
@@ -5293,14 +5293,14 @@
         <v>0</v>
       </c>
       <c r="J88" s="4">
-        <f>H88-I88</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="K88" s="6">
         <v>1</v>
       </c>
       <c r="L88" s="2">
-        <f>G88-K88</f>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="M88" s="2"/>
@@ -5336,14 +5336,14 @@
         <v>1</v>
       </c>
       <c r="J89" s="4">
-        <f>H89-I89</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K89" s="6">
         <v>0</v>
       </c>
       <c r="L89" s="2">
-        <f>G89-K89</f>
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
       <c r="M89" s="2"/>
@@ -5379,15 +5379,15 @@
         <v>15</v>
       </c>
       <c r="J90" s="4">
-        <f>H90-I90</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K90" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L90" s="2">
-        <f>G90-K90</f>
-        <v>36</v>
+        <f t="shared" si="5"/>
+        <v>38</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -5422,14 +5422,14 @@
         <v>0</v>
       </c>
       <c r="J91" s="4">
-        <f>H91-I91</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="K91" s="6">
         <v>0</v>
       </c>
       <c r="L91" s="2">
-        <f>G91-K91</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="M91" s="2"/>
@@ -5465,14 +5465,14 @@
         <v>1</v>
       </c>
       <c r="J92" s="4">
-        <f>H92-I92</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K92" s="6">
         <v>0</v>
       </c>
       <c r="L92" s="2">
-        <f>G92-K92</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="M92" s="2"/>
@@ -5508,14 +5508,14 @@
         <v>1</v>
       </c>
       <c r="J93" s="4">
-        <f>H93-I93</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K93" s="6">
         <v>0</v>
       </c>
       <c r="L93" s="2">
-        <f>G93-K93</f>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="M93" s="2"/>
@@ -5551,14 +5551,14 @@
         <v>1</v>
       </c>
       <c r="J94" s="4">
-        <f>H94-I94</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K94" s="6">
         <v>0</v>
       </c>
       <c r="L94" s="2">
-        <f>G94-K94</f>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="M94" s="2"/>
@@ -5594,14 +5594,14 @@
         <v>1</v>
       </c>
       <c r="J95" s="4">
-        <f>H95-I95</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K95" s="6">
         <v>0</v>
       </c>
       <c r="L95" s="2">
-        <f>G95-K95</f>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
       <c r="M95" s="2"/>
@@ -5637,14 +5637,14 @@
         <v>2</v>
       </c>
       <c r="J96" s="4">
-        <f>H96-I96</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="K96" s="6">
         <v>0</v>
       </c>
       <c r="L96" s="2">
-        <f>G96-K96</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="M96" s="2"/>
@@ -5680,14 +5680,14 @@
         <v>3</v>
       </c>
       <c r="J97" s="4">
-        <f>H97-I97</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K97" s="6">
         <v>0</v>
       </c>
       <c r="L97" s="2">
-        <f>G97-K97</f>
+        <f t="shared" si="5"/>
         <v>85</v>
       </c>
       <c r="M97" s="2"/>
@@ -5723,14 +5723,14 @@
         <v>10</v>
       </c>
       <c r="J98" s="4">
-        <f>H98-I98</f>
+        <f t="shared" ref="J98:J129" si="6">H98-I98</f>
         <v>0</v>
       </c>
       <c r="K98" s="6">
         <v>2</v>
       </c>
       <c r="L98" s="2">
-        <f>G98-K98</f>
+        <f t="shared" ref="L98:L129" si="7">G98-K98</f>
         <v>13</v>
       </c>
       <c r="M98" s="2"/>
@@ -5766,14 +5766,14 @@
         <v>0</v>
       </c>
       <c r="J99" s="4">
-        <f>H99-I99</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="K99" s="6">
         <v>0</v>
       </c>
       <c r="L99" s="2">
-        <f>G99-K99</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="M99" s="2"/>
@@ -5809,14 +5809,14 @@
         <v>1</v>
       </c>
       <c r="J100" s="4">
-        <f>H100-I100</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K100" s="6">
         <v>0</v>
       </c>
       <c r="L100" s="2">
-        <f>G100-K100</f>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="M100" s="2"/>
@@ -5852,14 +5852,14 @@
         <v>2</v>
       </c>
       <c r="J101" s="4">
-        <f>H101-I101</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K101" s="6">
         <v>0</v>
       </c>
       <c r="L101" s="2">
-        <f>G101-K101</f>
+        <f t="shared" si="7"/>
         <v>48</v>
       </c>
       <c r="M101" s="2"/>
@@ -5895,14 +5895,14 @@
         <v>1</v>
       </c>
       <c r="J102" s="4">
-        <f>H102-I102</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K102" s="6">
         <v>0</v>
       </c>
       <c r="L102" s="2">
-        <f>G102-K102</f>
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
       <c r="M102" s="2"/>
@@ -5938,14 +5938,14 @@
         <v>1</v>
       </c>
       <c r="J103" s="4">
-        <f>H103-I103</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K103" s="6">
         <v>1</v>
       </c>
       <c r="L103" s="2">
-        <f>G103-K103</f>
+        <f t="shared" si="7"/>
         <v>28</v>
       </c>
       <c r="M103" s="2"/>
@@ -5987,7 +5987,7 @@
         <v>0</v>
       </c>
       <c r="L104" s="2">
-        <f>G104-K104</f>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="M104" s="2"/>
@@ -6029,7 +6029,7 @@
         <v>0</v>
       </c>
       <c r="L105" s="2">
-        <f>G105-K105</f>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="N105" s="2"/>
@@ -6064,14 +6064,14 @@
         <v>1</v>
       </c>
       <c r="J106" s="4">
-        <f>H106-I106</f>
+        <f t="shared" ref="J106:J111" si="8">H106-I106</f>
         <v>0</v>
       </c>
       <c r="K106" s="6">
         <v>2</v>
       </c>
       <c r="L106" s="2">
-        <f>G106-K106</f>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="M106" s="2"/>
@@ -6107,14 +6107,14 @@
         <v>1</v>
       </c>
       <c r="J107" s="4">
-        <f>H107-I107</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K107" s="6">
         <v>0</v>
       </c>
       <c r="L107" s="2">
-        <f>G107-K107</f>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="M107" s="2"/>
@@ -6150,15 +6150,15 @@
         <v>13</v>
       </c>
       <c r="J108" s="4">
-        <f>H108-I108</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K108" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L108" s="2">
-        <f>G108-K108</f>
-        <v>18</v>
+        <f t="shared" si="7"/>
+        <v>20</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -6193,14 +6193,14 @@
         <v>2</v>
       </c>
       <c r="J109" s="4">
-        <f>H109-I109</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K109" s="6">
         <v>1</v>
       </c>
       <c r="L109" s="2">
-        <f>G109-K109</f>
+        <f t="shared" si="7"/>
         <v>28</v>
       </c>
       <c r="M109" s="2"/>
@@ -6236,14 +6236,14 @@
         <v>1</v>
       </c>
       <c r="J110" s="4">
-        <f>H110-I110</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K110" s="6">
         <v>0</v>
       </c>
       <c r="L110" s="2">
-        <f>G110-K110</f>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="M110" s="2"/>
@@ -6279,14 +6279,14 @@
         <v>1</v>
       </c>
       <c r="J111" s="4">
-        <f>H111-I111</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K111" s="6">
         <v>0</v>
       </c>
       <c r="L111" s="2">
-        <f>G111-K111</f>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
       <c r="M111" s="2"/>
@@ -6295,32 +6295,32 @@
     </row>
     <row r="112" spans="1:16" ht="18" customHeight="1">
       <c r="F112" s="1">
-        <f>SUM(F2:F111)</f>
+        <f t="shared" ref="F112:L112" si="9">SUM(F2:F111)</f>
         <v>4416</v>
       </c>
       <c r="G112" s="1">
-        <f>SUM(G2:G111)</f>
+        <f t="shared" si="9"/>
         <v>4108</v>
       </c>
       <c r="H112" s="1">
-        <f>SUM(H2:H111)</f>
+        <f t="shared" si="9"/>
         <v>308</v>
       </c>
       <c r="I112" s="7">
-        <f>SUM(I2:I111)</f>
+        <f t="shared" si="9"/>
         <v>236</v>
       </c>
       <c r="J112" s="4">
-        <f>SUM(J2:J111)</f>
+        <f t="shared" si="9"/>
         <v>70</v>
       </c>
       <c r="K112" s="4">
-        <f>SUM(K2:K111)</f>
-        <v>110</v>
+        <f t="shared" si="9"/>
+        <v>102</v>
       </c>
       <c r="L112" s="7">
-        <f>SUM(L2:L111)</f>
-        <v>3998</v>
+        <f t="shared" si="9"/>
+        <v>4006</v>
       </c>
       <c r="N112" s="4"/>
     </row>
@@ -6331,7 +6331,7 @@
       </c>
       <c r="L114" s="1">
         <f>L112/G112</f>
-        <v>0.97322297955209347</v>
+        <v>0.9751703992210321</v>
       </c>
     </row>
     <row r="116" spans="9:12" ht="18" customHeight="1">
@@ -6340,7 +6340,7 @@
       </c>
       <c r="J116" s="1">
         <f>I112/(I112+K112)</f>
-        <v>0.68208092485549132</v>
+        <v>0.69822485207100593</v>
       </c>
     </row>
     <row r="117" spans="9:12" ht="18" customHeight="1">
@@ -6358,7 +6358,7 @@
       </c>
       <c r="J118" s="1">
         <f>2*((J116*J117)/(J116+J117))</f>
-        <v>0.7239263803680982</v>
+        <v>0.73291925465838526</v>
       </c>
     </row>
     <row r="119" spans="9:12" ht="18" customHeight="1">
@@ -6367,7 +6367,7 @@
       </c>
       <c r="J119" s="1">
         <f>(I112+L112)/(I112+J112+K112+L112)</f>
-        <v>0.95922066153149066</v>
+        <v>0.96103307657453552</v>
       </c>
     </row>
   </sheetData>

--- a/EvaluationResults/RQ2+RQ3/2-SlsDetector-llama-result.xlsx
+++ b/EvaluationResults/RQ2+RQ3/2-SlsDetector-llama-result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cynthia/Desktop/Cynthia WorkSpace/serverless misconfiguration/LLM新方法设计/AllCode/Output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04422D4-655B-0F4C-A205-66E3B334E373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912C9880-41F5-6F45-8463-11AD5895B5C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gpt4o" sheetId="1" r:id="rId1"/>
@@ -1506,8 +1506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C116" sqref="C116"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I110" sqref="I110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="18" customHeight="1"/>
@@ -5723,14 +5723,14 @@
         <v>10</v>
       </c>
       <c r="J98" s="4">
-        <f t="shared" ref="J98:J129" si="6">H98-I98</f>
+        <f t="shared" ref="J98:J103" si="6">H98-I98</f>
         <v>0</v>
       </c>
       <c r="K98" s="6">
         <v>2</v>
       </c>
       <c r="L98" s="2">
-        <f t="shared" ref="L98:L129" si="7">G98-K98</f>
+        <f t="shared" ref="L98:L111" si="7">G98-K98</f>
         <v>13</v>
       </c>
       <c r="M98" s="2"/>
@@ -5981,7 +5981,8 @@
         <v>0</v>
       </c>
       <c r="J104" s="4">
-        <v>0</v>
+        <f>H104-I104</f>
+        <v>2</v>
       </c>
       <c r="K104" s="6">
         <v>0</v>
@@ -6312,7 +6313,7 @@
       </c>
       <c r="J112" s="4">
         <f t="shared" si="9"/>
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K112" s="4">
         <f t="shared" si="9"/>
@@ -6349,7 +6350,7 @@
       </c>
       <c r="J117" s="1">
         <f>I112/(I112+J112)</f>
-        <v>0.77124183006535951</v>
+        <v>0.76623376623376627</v>
       </c>
     </row>
     <row r="118" spans="9:12" ht="18" customHeight="1">
@@ -6358,7 +6359,7 @@
       </c>
       <c r="J118" s="1">
         <f>2*((J116*J117)/(J116+J117))</f>
-        <v>0.73291925465838526</v>
+        <v>0.73065015479876161</v>
       </c>
     </row>
     <row r="119" spans="9:12" ht="18" customHeight="1">
@@ -6367,7 +6368,7 @@
       </c>
       <c r="J119" s="1">
         <f>(I112+L112)/(I112+J112+K112+L112)</f>
-        <v>0.96103307657453552</v>
+        <v>0.96059782608695654</v>
       </c>
     </row>
   </sheetData>
